--- a/Final Project/PRJ 1/1NF, 2NF, 3NF Database Schema.xlsx
+++ b/Final Project/PRJ 1/1NF, 2NF, 3NF Database Schema.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>1NF, 2NF, 3NF Database Schema</t>
   </si>
@@ -130,124 +130,91 @@
     <t>Crime_Codes:</t>
   </si>
   <si>
-    <t>Crime_Code_Order</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Crime_Code_Ordder, Crm Cd, Crm Cd Desc}</t>
+    <t xml:space="preserve">Crm Cd </t>
+  </si>
+  <si>
+    <t>Crime Seriousness</t>
+  </si>
+  <si>
+    <t>DR_NO —&gt; {Crime Cd, Crime Seriousness, Crm Cd Desc, Part 1-2}</t>
   </si>
   <si>
     <t xml:space="preserve">2NF: </t>
   </si>
   <si>
+    <t>Crime:</t>
+  </si>
+  <si>
     <t>1FD —&gt;</t>
   </si>
   <si>
     <t>2FD —&gt;</t>
   </si>
   <si>
-    <t>3FD —&gt;</t>
-  </si>
-  <si>
-    <t>4FD —&gt;</t>
-  </si>
-  <si>
-    <t>5FD —&gt;</t>
-  </si>
-  <si>
-    <t>6FD —&gt;</t>
-  </si>
-  <si>
-    <t>7FD —&gt;</t>
-  </si>
-  <si>
     <t>Partial Dependancies:</t>
   </si>
   <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Date Rptd, DATE OCC, TIME OCC}</t>
+    <t>Crime_Code:</t>
+  </si>
+  <si>
+    <t>Crm_Cd —&gt; {Crm Cd Desc, Part 1-2}</t>
   </si>
   <si>
     <t>Area:</t>
   </si>
   <si>
-    <t>DR_NO —&gt; {AREA, AREA NAME}</t>
-  </si>
-  <si>
-    <t>Victim:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Vict Age, Vict Sex, Vict Descent}</t>
-  </si>
-  <si>
-    <t>Premises:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Premisis Cd, Premisis Desc}</t>
-  </si>
-  <si>
-    <t>Weapons:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Weapn Used Cd, Weapon Desc}</t>
-  </si>
-  <si>
-    <t>Statuses:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Status, Status Desc}</t>
-  </si>
-  <si>
-    <t>Location:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {LOCATION, Cross Street, LAT, LON}</t>
-  </si>
-  <si>
-    <t>Classification:</t>
-  </si>
-  <si>
-    <t>DR_NO —&gt; {Part 1-2}</t>
-  </si>
-  <si>
-    <t>3NF:</t>
-  </si>
-  <si>
-    <t>Date_of_crime:</t>
-  </si>
-  <si>
-    <t>Area_of_crime:</t>
-  </si>
-  <si>
-    <t>Crime_victim:</t>
+    <t>AREA —&gt; {AREA NAME}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3NF: </t>
+  </si>
+  <si>
+    <t>FD1 —&gt;</t>
+  </si>
+  <si>
+    <t>FD2 —&gt;</t>
+  </si>
+  <si>
+    <t>FD3 —&gt;</t>
+  </si>
+  <si>
+    <t>FD4 —&gt;</t>
+  </si>
+  <si>
+    <t>FD5 —&gt;</t>
+  </si>
+  <si>
+    <t>Transitive Dependancies:</t>
   </si>
   <si>
     <t>Crime_premises:</t>
   </si>
   <si>
-    <t>Crime_weapons:</t>
-  </si>
-  <si>
-    <t>Crime_statuses:</t>
-  </si>
-  <si>
-    <t>Crime_location:</t>
-  </si>
-  <si>
-    <t>Crime_classification:</t>
-  </si>
-  <si>
-    <t>FD1</t>
-  </si>
-  <si>
-    <t>Transitive Dependancies:</t>
+    <t>Premis Cd —&gt; {Premis Desc}</t>
+  </si>
+  <si>
+    <t>Weapon:</t>
+  </si>
+  <si>
+    <t>Weapn Used Cd —&gt; {Weapon Desc}</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Status —&gt; {Status Desc}</t>
+  </si>
+  <si>
+    <t>MOCODE_Description</t>
+  </si>
+  <si>
+    <t>Mocode —&gt; {Mocode Desc}</t>
   </si>
   <si>
     <t>Reporting_districts:</t>
   </si>
   <si>
-    <t>AREA —&gt; {Rpt Dist No}</t>
+    <t>Rpt Dist No —&gt; {AREA}</t>
   </si>
   <si>
     <t>Result:</t>
@@ -256,7 +223,298 @@
     <t>CrimeReports:</t>
   </si>
   <si>
-    <t>CrimeReports —&gt; {DR_NO, Date_Rptd, Date_OCC, Time_OCC, AREA, Part_1_2, Vict_Age, Vict_Sex, Vict_Descent, Premis_Cd, Weapon_Used_Cd, Status, Location, Cross_Street, LAT, LON}</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>DR_NO</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <t>AREA (FK)</t>
+  </si>
+  <si>
+    <t>Premis Cd (FK)</t>
+  </si>
+  <si>
+    <t>Weapon Used Cd (FK)</t>
+  </si>
+  <si>
+    <t>Status (FK)</t>
+  </si>
+  <si>
+    <t>DR_NO —&gt; {Date_Rptd, Date_OCC, Time_OCC, AREA, Vict_Age, Vict_Sex, Vict_Descent, Premis_Cd, Weapon_Used_Cd, Status, Location, Cross_Street, LAT, LON}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>DR_NO</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK &amp; FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Crm Cd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK &amp; FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Crime Seriousness</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <t>DR_NO —&gt; {Crime Cd, Crime Seriousness}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>DR_NO</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK &amp;FK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Mocode</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK &amp; FK)</t>
+    </r>
+  </si>
+  <si>
+    <t>DR_NO —&gt; {Mocode}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Premis Cd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>AREA</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Weapon Used Cd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (nullable)* (PK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Rpt Dist No</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Mocode</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Crm Cd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -266,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -276,6 +534,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -297,7 +560,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -322,8 +591,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -335,6 +610,37 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -342,97 +648,556 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
+      <right>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <right/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,83 +1207,338 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,12 +1558,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ffed220b"/>
+      <rgbColor rgb="ffdddddd"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -553,16 +1574,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598685</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142855</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>682324</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598685</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>18066</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610916</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247903</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -570,9 +1591,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1843285" y="3959840"/>
-          <a:ext cx="1" cy="129847"/>
+        <a:xfrm>
+          <a:off x="4416124" y="3739768"/>
+          <a:ext cx="3738593" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -599,16 +1620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596826</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16206</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>688674</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>671620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16206</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>688674</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247904</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -616,9 +1637,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1841426" y="4087826"/>
-          <a:ext cx="25042995" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="4422474" y="3610559"/>
+          <a:ext cx="1" cy="129211"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -645,16 +1666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>671620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22615</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611170</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>671620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>18066</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611170</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>254</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -663,8 +1684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="26884420" y="3839600"/>
-          <a:ext cx="1" cy="250087"/>
+          <a:off x="8154970" y="3505649"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -692,16 +1713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>603756</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17812</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597836</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>603756</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22869</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597836</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>241554</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,8 +1731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="25571956" y="3834797"/>
-          <a:ext cx="1" cy="259693"/>
+          <a:off x="6897036" y="3492949"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -739,16 +1760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>535891</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22615</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>642978</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>235006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>535891</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27672</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620526</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>235006</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -756,9 +1777,101 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376778" y="7013631"/>
+          <a:ext cx="1222149" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>649328</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>649328</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24259490" y="3839600"/>
-          <a:ext cx="1" cy="259693"/>
+          <a:off x="4383128" y="6878071"/>
+          <a:ext cx="1" cy="129211"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>241356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5599180" y="6779511"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -786,26 +1899,118 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>586691</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17812</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>235710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>586691</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22869</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519988</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>235710</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line"/>
+        <xdr:cNvPr id="9" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13064640" y="6014845"/>
+          <a:ext cx="1222149" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548790</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548790</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>229360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23065690" y="3834797"/>
-          <a:ext cx="1" cy="259693"/>
+          <a:off x="13070990" y="5879285"/>
+          <a:ext cx="1" cy="129211"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520242</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520242</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>242060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14287042" y="5780725"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -833,26 +2038,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>605403</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11981</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619746</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>235710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>637490</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11981</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597294</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>235710</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line"/>
+        <xdr:cNvPr id="12" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1850003" y="4338236"/>
-          <a:ext cx="20021888" cy="1"/>
+          <a:off x="15631146" y="6014845"/>
+          <a:ext cx="1222149" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -879,120 +2084,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>637490</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13263</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>626096</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>637490</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18320</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>626096</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>229360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line"/>
+        <xdr:cNvPr id="13" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21871890" y="4084883"/>
-          <a:ext cx="1" cy="259693"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>569624</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>569624</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9027</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20559424" y="4094176"/>
-          <a:ext cx="1" cy="241107"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596307</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>143109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596307</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1840907" y="4214729"/>
-          <a:ext cx="1" cy="129847"/>
+          <a:off x="15637496" y="5879285"/>
+          <a:ext cx="1" cy="129211"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1019,72 +2130,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598685</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7755</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597548</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>573468</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7755</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597548</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>242060</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1843285" y="4588645"/>
-          <a:ext cx="17475384" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>573468</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>573468</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7919</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Line"/>
+        <xdr:cNvPr id="14" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19318668" y="4334675"/>
-          <a:ext cx="1" cy="254135"/>
+          <a:off x="16853548" y="5780725"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1113,25 +2178,117 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>626616</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14934</xdr:rowOff>
+      <xdr:colOff>697052</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>235710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>235710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18197652" y="6014845"/>
+          <a:ext cx="1222150" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>703402</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>626616</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1405</xdr:rowOff>
+      <xdr:colOff>703402</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>229360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line"/>
+        <xdr:cNvPr id="16" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18127216" y="4341189"/>
-          <a:ext cx="1" cy="241107"/>
+          <a:off x="18204002" y="5879285"/>
+          <a:ext cx="1" cy="129211"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>242060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19420054" y="5780725"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1159,26 +2316,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>592335</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19954</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619746</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>646171</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19954</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>597295</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>247903</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line"/>
+        <xdr:cNvPr id="18" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836935" y="4855479"/>
-          <a:ext cx="15065237" cy="1"/>
+          <a:off x="10652746" y="3739768"/>
+          <a:ext cx="1222150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1205,26 +2362,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>592335</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>135487</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626096</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>592335</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10698</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626096</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>241553</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line"/>
+        <xdr:cNvPr id="19" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1836935" y="4461742"/>
-          <a:ext cx="1" cy="129847"/>
+          <a:off x="10659096" y="3604208"/>
+          <a:ext cx="1" cy="129211"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1251,72 +2408,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598685</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>597548</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598685</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>18084</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>597548</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>254</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Line"/>
+        <xdr:cNvPr id="20" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1843285" y="4723763"/>
-          <a:ext cx="1" cy="129847"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601216</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601216</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>29705</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15612616" y="4582295"/>
-          <a:ext cx="1" cy="282936"/>
+          <a:off x="11875148" y="3505649"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1344,73 +2455,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>641856</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23377</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619746</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>641856</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>18828</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16897856" y="4604267"/>
-          <a:ext cx="1" cy="250087"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>605035</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603121</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17262</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line"/>
+        <xdr:cNvPr id="21" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1849635" y="5107422"/>
-          <a:ext cx="12520287" cy="1"/>
+          <a:off x="6918946" y="6057775"/>
+          <a:ext cx="1222150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1437,26 +2501,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>611385</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142051</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590945</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>611385</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17262</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590945</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30990</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line"/>
+        <xdr:cNvPr id="22" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1855985" y="4977576"/>
-          <a:ext cx="1" cy="129847"/>
+          <a:off x="8134745" y="5934915"/>
+          <a:ext cx="1" cy="129211"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1483,63 +2547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603121</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>5434</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625141</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603121</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14369921" y="4840959"/>
-          <a:ext cx="1" cy="267172"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>605026</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>13604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>605026</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15863</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625141</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30990</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1548,148 +2565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13127226" y="4849129"/>
-          <a:ext cx="1" cy="256895"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628962</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>13604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628962</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11906562" y="4849129"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>605035</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>614937</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7395</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1849635" y="5352190"/>
-          <a:ext cx="7553703" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619253</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9379</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619253</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13745</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9407653" y="5099539"/>
-          <a:ext cx="1" cy="259002"/>
+          <a:off x="6924341" y="5823655"/>
+          <a:ext cx="1" cy="240471"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1718,36 +2595,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>606236</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9379</xdr:rowOff>
+      <xdr:colOff>609685</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>300526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>606236</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13745</xdr:rowOff>
+      <xdr:colOff>609685</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>330147</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Line"/>
+        <xdr:cNvPr id="24" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8150036" y="5099539"/>
-          <a:ext cx="1" cy="259002"/>
+          <a:off x="8153485" y="12754781"/>
+          <a:ext cx="1" cy="1674272"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
@@ -1764,16 +2641,155 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>606457</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9379</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594718</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>320455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>606457</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13745</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610916</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>320455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4328518" y="14419360"/>
+          <a:ext cx="3826199" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607418</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>320455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607418</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4341218" y="14419360"/>
+          <a:ext cx="1" cy="225023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657038</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>204097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657038</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>456315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635438" y="15181207"/>
+          <a:ext cx="1" cy="252219"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594718</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>203145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>669738</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>203145</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1781,20 +2797,899 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6905657" y="5099539"/>
-          <a:ext cx="1" cy="259002"/>
+        <a:xfrm flipH="1">
+          <a:off x="4328518" y="15180255"/>
+          <a:ext cx="1319621" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607418</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607418</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>204097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4341218" y="14980883"/>
+          <a:ext cx="1" cy="200325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588193</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588193</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>319385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3077393" y="12533169"/>
+          <a:ext cx="1" cy="240471"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13064640" y="12533169"/>
+          <a:ext cx="1" cy="362808"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>689459</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555140</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11967059" y="12895976"/>
+          <a:ext cx="1110282" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676759</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>429021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676759</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>285443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11954359" y="12883276"/>
+          <a:ext cx="1" cy="1161983"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553897</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553897</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>429021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14320697" y="12520469"/>
+          <a:ext cx="1" cy="362808"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553897</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>416321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>416321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14320697" y="12870576"/>
+          <a:ext cx="690703" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>403621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15011400" y="12857876"/>
+          <a:ext cx="1" cy="1936969"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680479</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11958079" y="14807544"/>
+          <a:ext cx="3066022" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>689459</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>182224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>689459</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>311434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11967059" y="14820244"/>
+          <a:ext cx="1" cy="129211"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>632446</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>632446</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15643846" y="12533169"/>
+          <a:ext cx="1" cy="362808"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619746</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574843</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15631146" y="12895976"/>
+          <a:ext cx="2444298" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574107</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>429000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574107</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>285464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18074707" y="12883255"/>
+          <a:ext cx="1" cy="1162025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619746</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619746</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>463235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10652746" y="15975428"/>
+          <a:ext cx="1" cy="362808"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626701</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8788400" y="15962944"/>
+          <a:ext cx="1871302" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1231900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>211634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1231900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="12665889"/>
+          <a:ext cx="1" cy="3309540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594717</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>211850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>211850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4328517" y="12666104"/>
+          <a:ext cx="4459883" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208882</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1066163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208882</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1453482" y="11809728"/>
+          <a:ext cx="1" cy="1687354"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588193</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588193</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>326986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Line"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3077393" y="13471681"/>
+          <a:ext cx="1" cy="240471"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
@@ -1812,36 +3707,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>611385</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125834</xdr:rowOff>
+      <xdr:colOff>208882</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>611385</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1045</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>585480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99216</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Line"/>
+        <xdr:cNvPr id="48" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1855985" y="5215994"/>
-          <a:ext cx="1" cy="129847"/>
+        <a:xfrm flipH="1">
+          <a:off x="1453482" y="13484381"/>
+          <a:ext cx="1621199" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -1858,129 +3753,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>617735</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>16843</xdr:rowOff>
+      <xdr:colOff>196182</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1066163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>648086</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>16843</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1189616</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1066163</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Line"/>
+        <xdr:cNvPr id="49" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1862335" y="5616273"/>
-          <a:ext cx="3764152" cy="1"/>
+          <a:off x="1440782" y="11809728"/>
+          <a:ext cx="993435" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>624085</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>135282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>624085</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>10493</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1868685" y="5480077"/>
-          <a:ext cx="1" cy="129847"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>579684</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>579684</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20424</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3068884" y="5360854"/>
-          <a:ext cx="1" cy="259001"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -1997,37 +3799,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>567032</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16059</xdr:rowOff>
+      <xdr:colOff>607417</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>203297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>567032</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20424</xdr:rowOff>
+      <xdr:colOff>607417</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>403621</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Line"/>
+        <xdr:cNvPr id="50" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4300832" y="5360854"/>
-          <a:ext cx="1" cy="259001"/>
+          <a:off x="4341217" y="12657552"/>
+          <a:ext cx="1" cy="200325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -2043,37 +3844,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>648087</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16059</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607417</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>648087</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20424</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607417</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>221753</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Line"/>
+        <xdr:cNvPr id="51" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5626487" y="5360854"/>
-          <a:ext cx="1" cy="259001"/>
+          <a:off x="4341217" y="14112318"/>
+          <a:ext cx="1" cy="208341"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
@@ -2091,36 +3892,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>635159</xdr:colOff>
+      <xdr:colOff>857763</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>19529</xdr:rowOff>
+      <xdr:rowOff>234453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>643125</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>620117</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>19529</xdr:rowOff>
+      <xdr:rowOff>234453</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Line"/>
+        <xdr:cNvPr id="52" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1879759" y="13557094"/>
-          <a:ext cx="11285567" cy="1"/>
+        <a:xfrm flipH="1">
+          <a:off x="2102363" y="14333358"/>
+          <a:ext cx="2251555" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -2137,36 +3938,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630435</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>144674</xdr:rowOff>
+      <xdr:colOff>870463</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>247153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630435</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23652</xdr:rowOff>
+      <xdr:colOff>870463</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>307232</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Line"/>
+        <xdr:cNvPr id="53" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1875035" y="13427604"/>
-          <a:ext cx="1" cy="133614"/>
+          <a:off x="2115063" y="14346058"/>
+          <a:ext cx="1" cy="1836175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -2182,38 +3983,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>617784</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23776</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857763</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>307232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>617784</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28142</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640496</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>307232</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Line"/>
+        <xdr:cNvPr id="54" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3106984" y="13306706"/>
-          <a:ext cx="1" cy="259002"/>
+        <a:xfrm flipH="1">
+          <a:off x="2102363" y="16182232"/>
+          <a:ext cx="2271934" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -2230,366 +4030,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>643232</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23776</xdr:rowOff>
+      <xdr:colOff>632818</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>294532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>643232</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28142</xdr:rowOff>
+      <xdr:colOff>632818</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>494855</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Line"/>
+        <xdr:cNvPr id="55" name="Line"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4377032" y="13306706"/>
-          <a:ext cx="1" cy="259002"/>
+          <a:off x="4366618" y="16169532"/>
+          <a:ext cx="1" cy="200324"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>675644</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>675644</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5654044" y="13298104"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>631857</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>631857</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28142</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6931057" y="13306706"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644336</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644336</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8188136" y="13298104"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>653037</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>653037</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28142</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9441437" y="13306706"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666054</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666054</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10699054" y="13298104"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>667062</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>667062</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11944662" y="13298104"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>643126</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>643126</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23652</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Line"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13165326" y="13302216"/>
-          <a:ext cx="1" cy="259002"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -2617,10 +4087,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -2797,11 +4267,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2810,7 +4283,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2824,19 +4297,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3075,12 +4548,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3361,7 +4834,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3629,318 +5102,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AD56"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984" style="1" customWidth="1"/>
-    <col min="6" max="30" width="16.3516" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3516" style="1" customWidth="1"/>
+    <col min="6" max="31" width="16.3516" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="27.75" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="6"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="N2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="O2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="4">
+      <c r="Q2" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="R2" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="S2" t="s" s="4">
+      <c r="S2" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="T2" t="s" s="4">
+      <c r="T2" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="U2" t="s" s="4">
+      <c r="U2" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="V2" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="W2" t="s" s="4">
+      <c r="W2" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="X2" t="s" s="4">
+      <c r="X2" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="Y2" t="s" s="4">
+      <c r="Y2" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="Z2" t="s" s="4">
+      <c r="Z2" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="AA2" t="s" s="4">
+      <c r="AA2" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="AB2" t="s" s="4">
+      <c r="AB2" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="11"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="17"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="20">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" t="s" s="20">
         <v>3</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" t="s" s="20">
         <v>4</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="G4" t="s" s="20">
         <v>6</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" t="s" s="20">
         <v>7</v>
       </c>
-      <c r="I4" t="s" s="11">
+      <c r="I4" t="s" s="20">
         <v>8</v>
       </c>
-      <c r="J4" t="s" s="11">
+      <c r="J4" t="s" s="20">
         <v>9</v>
       </c>
-      <c r="K4" t="s" s="11">
+      <c r="K4" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="L4" t="s" s="11">
+      <c r="L4" t="s" s="20">
         <v>11</v>
       </c>
-      <c r="M4" t="s" s="11">
+      <c r="M4" t="s" s="20">
         <v>12</v>
       </c>
-      <c r="N4" t="s" s="11">
+      <c r="N4" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="O4" t="s" s="11">
+      <c r="O4" t="s" s="20">
         <v>14</v>
       </c>
-      <c r="P4" t="s" s="11">
+      <c r="P4" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="Q4" t="s" s="11">
+      <c r="Q4" t="s" s="20">
         <v>16</v>
       </c>
-      <c r="R4" t="s" s="11">
+      <c r="R4" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="S4" t="s" s="11">
+      <c r="S4" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="T4" t="s" s="11">
+      <c r="T4" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="U4" t="s" s="11">
+      <c r="U4" t="s" s="20">
         <v>20</v>
       </c>
-      <c r="V4" t="s" s="11">
+      <c r="V4" t="s" s="20">
         <v>21</v>
       </c>
-      <c r="W4" t="s" s="11">
+      <c r="W4" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="X4" t="s" s="11">
+      <c r="X4" t="s" s="20">
         <v>23</v>
       </c>
-      <c r="Y4" t="s" s="11">
+      <c r="Y4" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="Z4" t="s" s="11">
+      <c r="Z4" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="AA4" t="s" s="11">
+      <c r="AA4" t="s" s="20">
         <v>26</v>
       </c>
-      <c r="AB4" t="s" s="11">
+      <c r="AB4" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="AC4" t="s" s="11">
+      <c r="AC4" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="AD4" s="12"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="22"/>
     </row>
-    <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s" s="14">
+    <row r="5" ht="32" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s" s="24">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
       <c r="AD5" s="16"/>
+      <c r="AE5" s="17"/>
     </row>
-    <row r="6" ht="44.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" t="s" s="14">
+    <row r="6" ht="44" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s" s="27">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="17">
+      <c r="C6" t="s" s="28">
         <v>33</v>
       </c>
-      <c r="D6" t="s" s="18">
+      <c r="D6" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" t="s" s="20">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="19">
+      <c r="G6" t="s" s="29">
         <v>36</v>
       </c>
       <c r="H6" s="16"/>
@@ -3966,16 +5442,17 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
+      <c r="AE6" s="17"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -3998,33 +5475,36 @@
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
+      <c r="AE7" s="17"/>
     </row>
-    <row r="8" ht="56.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" t="s" s="14">
+    <row r="8" ht="56" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s" s="27">
         <v>37</v>
       </c>
-      <c r="C8" t="s" s="17">
+      <c r="C8" t="s" s="28">
         <v>38</v>
       </c>
-      <c r="D8" t="s" s="18">
+      <c r="D8" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" t="s" s="20">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s" s="11">
+      <c r="F8" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="H8" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="H8" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s" s="29">
+        <v>41</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -4044,19 +5524,20 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
+      <c r="AE8" s="17"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -4076,19 +5557,38 @@
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
+      <c r="AE9" s="17"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="33">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="20">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s" s="20">
+        <v>6</v>
+      </c>
+      <c r="K10" s="30"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -4108,74 +5608,35 @@
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
+      <c r="AE10" s="17"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s" s="18">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="N11" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="O11" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="P11" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="R11" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="S11" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="T11" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="U11" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="V11" t="s" s="11">
-        <v>28</v>
-      </c>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="35"/>
+      <c r="C11" t="s" s="36">
+        <v>44</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="16"/>
+      <c r="I11" t="s" s="39">
+        <v>45</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -4184,16 +5645,15 @@
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
+      <c r="AE11" s="17"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="23">
-        <v>42</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -4218,16 +5678,17 @@
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
+      <c r="AE12" s="17"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="23">
-        <v>43</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+    <row r="13" ht="32" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s" s="27">
+        <v>46</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -4252,16 +5713,25 @@
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
+      <c r="AE13" s="17"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="23">
-        <v>44</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+    <row r="14" ht="26.7" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s" s="42">
+        <v>48</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -4286,21 +5756,20 @@
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
+      <c r="AE14" s="17"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="23">
-        <v>45</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
@@ -4320,21 +5789,28 @@
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
+      <c r="AE15" s="17"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+    <row r="16" ht="26.7" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="20">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s" s="42">
+        <v>50</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -4354,30 +5830,29 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
+      <c r="AE16" s="17"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="23">
-        <v>47</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -4388,31 +5863,70 @@
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
+      <c r="AE17" s="17"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="23">
-        <v>48</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+    <row r="18" ht="14.7" customHeight="1">
+      <c r="A18" t="s" s="18">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="20">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s" s="20">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s" s="20">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="R18" t="s" s="20">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s" s="20">
+        <v>28</v>
+      </c>
+      <c r="U18" s="30"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
@@ -4422,28 +5936,37 @@
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
+      <c r="AE18" s="17"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" t="s" s="54">
+        <v>52</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" t="s" s="54">
+        <v>53</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" t="s" s="39">
+        <v>55</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
@@ -4454,24 +5977,23 @@
       <c r="AB19" s="16"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
+      <c r="AE19" s="17"/>
     </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
@@ -4488,35 +6010,34 @@
       <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
+      <c r="AE20" s="17"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s" s="18">
+    <row r="21" ht="38.7" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" t="s" s="33">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="D21" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="D21" t="s" s="20">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s" s="29">
+        <v>36</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="60"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -4532,23 +6053,26 @@
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
+      <c r="AE21" s="17"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+    <row r="22" ht="32" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="61"/>
+      <c r="C22" t="s" s="36">
+        <v>56</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="60"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
@@ -4564,32 +6088,25 @@
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
+      <c r="AE22" s="17"/>
     </row>
-    <row r="23" ht="44.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" t="s" s="24">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+    <row r="23" ht="26.7" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s" s="65">
+        <v>57</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
@@ -4606,15 +6123,24 @@
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
+      <c r="AE23" s="17"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="16"/>
+    <row r="24" ht="26.7" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" t="s" s="33">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s" s="68">
+        <v>59</v>
+      </c>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -4638,27 +6164,16 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
+      <c r="AE24" s="17"/>
     </row>
-    <row r="25" ht="44.05" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" t="s" s="24">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s" s="19">
-        <v>55</v>
-      </c>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -4682,15 +6197,24 @@
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
+      <c r="AE25" s="17"/>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="16"/>
+    <row r="26" ht="26.7" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" t="s" s="33">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s" s="68">
+        <v>61</v>
+      </c>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -4714,25 +6238,16 @@
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
+      <c r="AE26" s="17"/>
     </row>
-    <row r="27" ht="44.05" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" t="s" s="24">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="G27" s="16"/>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -4756,15 +6271,24 @@
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
+      <c r="AE27" s="17"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+    <row r="28" ht="26.7" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s" s="68">
+        <v>63</v>
+      </c>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -4788,25 +6312,16 @@
       <c r="AB28" s="16"/>
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
+      <c r="AE28" s="17"/>
     </row>
-    <row r="29" ht="44.05" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" t="s" s="24">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="G29" s="16"/>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -4830,15 +6345,24 @@
       <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
+      <c r="AE29" s="17"/>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+    <row r="30" ht="26.7" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" t="s" s="33">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s" s="73">
+        <v>65</v>
+      </c>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -4862,25 +6386,16 @@
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
+      <c r="AE30" s="17"/>
     </row>
-    <row r="31" ht="44.05" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" t="s" s="24">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="G31" s="16"/>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -4904,15 +6419,24 @@
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
+      <c r="AE31" s="17"/>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+    <row r="32" ht="26.7" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s" s="33">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s" s="20">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s" s="29">
+        <v>67</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -4936,30 +6460,17 @@
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
+      <c r="AE32" s="17"/>
     </row>
-    <row r="33" ht="44.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" t="s" s="24">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s" s="19">
-        <v>63</v>
-      </c>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
@@ -4982,26 +6493,29 @@
       <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
+      <c r="AE33" s="17"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" t="s" s="18">
+        <v>68</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="41"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
@@ -5014,34 +6528,61 @@
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
+      <c r="AE34" s="17"/>
     </row>
-    <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" t="s" s="24">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s" s="19">
-        <v>65</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+    <row r="35" ht="134.7" customHeight="1">
+      <c r="A35" s="77"/>
+      <c r="B35" t="s" s="78">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s" s="79">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="79">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s" s="79">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s" s="79">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="79">
+        <v>72</v>
+      </c>
+      <c r="L35" t="s" s="79">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s" s="79">
+        <v>74</v>
+      </c>
+      <c r="N35" t="s" s="79">
+        <v>25</v>
+      </c>
+      <c r="O35" t="s" s="79">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s" s="80">
+        <v>75</v>
+      </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
@@ -5053,27 +6594,28 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="81"/>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+    <row r="36" ht="34.6" customHeight="1">
+      <c r="A36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="87"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -5084,28 +6626,39 @@
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="84"/>
+      <c r="AE36" s="88"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
+    <row r="37" ht="38.7" customHeight="1">
+      <c r="A37" s="82"/>
+      <c r="B37" t="s" s="89">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s" s="19">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s" s="19">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s" s="90">
+        <v>79</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -5117,49 +6670,28 @@
       <c r="AA37" s="16"/>
       <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="92"/>
     </row>
-    <row r="38" ht="32.05" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="G38" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="J38" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="K38" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
+    <row r="38" ht="29.5" customHeight="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -5172,27 +6704,34 @@
       <c r="AB38" s="16"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
+      <c r="AE38" s="17"/>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="23">
-        <v>75</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+    <row r="39" ht="26.7" customHeight="1">
+      <c r="A39" s="82"/>
+      <c r="B39" t="s" s="78">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s" s="90">
+        <v>82</v>
+      </c>
+      <c r="F39" s="97"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="41"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="41"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -5206,25 +6745,42 @@
       <c r="AB39" s="16"/>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
+      <c r="AE39" s="17"/>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+    <row r="40" ht="42.45" customHeight="1">
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="56"/>
+      <c r="I40" t="s" s="78">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s" s="19">
+        <v>83</v>
+      </c>
+      <c r="K40" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s" s="80">
+        <v>59</v>
+      </c>
+      <c r="M40" s="56"/>
+      <c r="N40" t="s" s="89">
+        <v>62</v>
+      </c>
+      <c r="O40" t="s" s="19">
+        <v>84</v>
+      </c>
+      <c r="P40" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="Q40" t="s" s="80">
+        <v>63</v>
+      </c>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -5238,27 +6794,34 @@
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
+      <c r="AE40" s="17"/>
     </row>
-    <row r="41" ht="32.05" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" t="s" s="14">
-        <v>76</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
+    <row r="41" ht="26.7" customHeight="1">
+      <c r="A41" s="82"/>
+      <c r="B41" s="97"/>
+      <c r="C41" t="s" s="102">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s" s="19">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s" s="79">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s" s="73">
+        <v>50</v>
+      </c>
+      <c r="G41" s="103"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="48"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="40"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -5272,28 +6835,29 @@
       <c r="AB41" s="16"/>
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
+      <c r="AE41" s="17"/>
     </row>
-    <row r="42" ht="32.05" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" t="s" s="24">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s" s="18">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s" s="19">
-        <v>78</v>
-      </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
+    <row r="42" ht="44" customHeight="1">
+      <c r="A42" s="82"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="56"/>
+      <c r="I42" t="s" s="78">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="K42" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s" s="80">
+        <v>61</v>
+      </c>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
@@ -5312,20 +6876,29 @@
       <c r="AB42" s="16"/>
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
+      <c r="AE42" s="17"/>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+    <row r="43" ht="26.7" customHeight="1">
+      <c r="A43" s="82"/>
+      <c r="B43" s="97"/>
+      <c r="C43" t="s" s="78">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s" s="79">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s" s="29">
+        <v>67</v>
+      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
@@ -5344,22 +6917,21 @@
       <c r="AB43" s="16"/>
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
+      <c r="AE43" s="17"/>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+    <row r="44" ht="44" customHeight="1">
+      <c r="A44" s="82"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="41"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
@@ -5378,546 +6950,67 @@
       <c r="AB44" s="16"/>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
+      <c r="AE44" s="17"/>
     </row>
-    <row r="45" ht="176.05" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" t="s" s="24">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="G45" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="H45" t="s" s="11">
+    <row r="45" ht="26.7" customHeight="1">
+      <c r="A45" s="82"/>
+      <c r="B45" s="106"/>
+      <c r="C45" t="s" s="107">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s" s="79">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s" s="108">
+        <v>65</v>
+      </c>
+      <c r="G45" s="109"/>
+      <c r="H45" t="s" s="107">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="J45" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="K45" t="s" s="79">
         <v>8</v>
       </c>
-      <c r="I45" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="J45" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="L45" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="M45" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="N45" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="O45" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="P45" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="Q45" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="R45" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="S45" t="s" s="19">
-        <v>81</v>
-      </c>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-    </row>
-    <row r="46" ht="44.05" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="F46" t="s" s="19">
-        <v>36</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-    </row>
-    <row r="47" ht="56.05" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
-    </row>
-    <row r="48" ht="44.05" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
-    </row>
-    <row r="49" ht="44.05" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" t="s" s="24">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
-      <c r="AD49" s="16"/>
-    </row>
-    <row r="50" ht="44.05" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" t="s" s="24">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s" s="19">
-        <v>55</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
-    </row>
-    <row r="51" ht="44.05" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" t="s" s="24">
-        <v>56</v>
-      </c>
-      <c r="C51" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16"/>
-    </row>
-    <row r="52" ht="44.05" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" t="s" s="24">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
-    </row>
-    <row r="53" ht="44.05" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" t="s" s="24">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="E53" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="F53" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-    </row>
-    <row r="54" ht="44.05" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" t="s" s="24">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="E54" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s" s="19">
-        <v>63</v>
-      </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-      <c r="AC54" s="16"/>
-      <c r="AD54" s="16"/>
-    </row>
-    <row r="55" ht="32.05" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" t="s" s="24">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s" s="18">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s" s="19">
-        <v>65</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="16"/>
-    </row>
-    <row r="56" ht="32.05" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" t="s" s="24">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s" s="18">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s" s="19">
-        <v>78</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
+      <c r="L45" t="s" s="110">
+        <v>48</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A35:A45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Final Project/PRJ 1/1NF, 2NF, 3NF Database Schema.xlsx
+++ b/Final Project/PRJ 1/1NF, 2NF, 3NF Database Schema.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olucdenver-my.sharepoint.com/personal/dylan_phoutthavong_ucdenver_edu/Documents/CU Denver/2024-2025/Spring 2025/CSCI 3287-Database System Concepts/Final Project/PRJ 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_600601E184BD991F04D6E4A2A7AF6329359B3BF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7006F264-C857-6E40-B600-4DF3DC8BF213}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 1NF, 2NF, 3NF Databas" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - 1NF, 2NF, 3NF Databas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
   <si>
     <t>1NF, 2NF, 3NF Database Schema</t>
   </si>
@@ -225,8 +234,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -235,7 +244,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -261,8 +270,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -271,7 +280,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -282,8 +291,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -292,7 +301,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -303,8 +312,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -313,7 +322,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -327,8 +336,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -337,7 +346,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -348,7 +357,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -357,8 +366,8 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -372,8 +381,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -382,7 +391,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -393,8 +402,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -403,7 +412,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -414,8 +423,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -424,7 +433,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -435,8 +444,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -445,7 +454,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -456,29 +465,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Rpt Dist No</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> (PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -487,7 +475,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -498,8 +486,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -508,7 +496,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -516,15 +504,29 @@
       <t xml:space="preserve"> (PK)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Rpt Dist No</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rpt Dist No (FK)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -536,28 +538,37 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -791,39 +802,9 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,15 +813,22 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom/>
@@ -850,105 +838,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
@@ -957,15 +858,77 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -975,60 +938,40 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1041,12 +984,8 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1061,10 +1000,58 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
@@ -1072,90 +1059,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1163,9 +1068,7 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1179,9 +1082,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1193,9 +1094,7 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1203,342 +1102,348 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="113">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1549,29 +1454,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffd5d5d5"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffed220b"/>
-      <rgbColor rgb="ffdddddd"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFD5D5D5"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFED220B"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1585,9 +1546,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>247903</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line"/>
+        <xdr:cNvPr id="2" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1612,7 +1579,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1631,9 +1598,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>247904</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line"/>
+        <xdr:cNvPr id="3" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1658,7 +1631,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1677,9 +1650,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>254</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line"/>
+        <xdr:cNvPr id="4" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1705,7 +1684,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1724,9 +1703,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>241554</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line"/>
+        <xdr:cNvPr id="5" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1752,7 +1737,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1771,9 +1756,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>235006</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line"/>
+        <xdr:cNvPr id="6" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1798,7 +1789,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1817,9 +1808,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>228656</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line"/>
+        <xdr:cNvPr id="7" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1844,7 +1841,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1863,9 +1860,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>241356</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line"/>
+        <xdr:cNvPr id="8" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1891,7 +1894,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1910,9 +1913,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>235710</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line"/>
+        <xdr:cNvPr id="9" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1937,7 +1946,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1956,9 +1965,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>229360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Line"/>
+        <xdr:cNvPr id="10" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1983,7 +1998,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2002,9 +2017,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>242060</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Line"/>
+        <xdr:cNvPr id="11" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2030,7 +2051,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2049,9 +2070,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>235710</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line"/>
+        <xdr:cNvPr id="12" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2076,7 +2103,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2095,9 +2122,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>229360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Line"/>
+        <xdr:cNvPr id="13" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2122,7 +2155,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2141,9 +2174,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>242060</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line"/>
+        <xdr:cNvPr id="14" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2169,7 +2208,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2188,9 +2227,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>235710</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line"/>
+        <xdr:cNvPr id="15" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2215,7 +2260,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2234,9 +2279,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>229360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line"/>
+        <xdr:cNvPr id="16" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2261,7 +2312,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2280,9 +2331,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>242060</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Line"/>
+        <xdr:cNvPr id="17" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2308,7 +2365,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2327,9 +2384,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>247903</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line"/>
+        <xdr:cNvPr id="18" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2354,7 +2417,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2373,9 +2436,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>241553</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Line"/>
+        <xdr:cNvPr id="19" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2400,7 +2469,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2419,9 +2488,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>254</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line"/>
+        <xdr:cNvPr id="20" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2447,7 +2522,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2466,9 +2541,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>24640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line"/>
+        <xdr:cNvPr id="21" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2493,7 +2574,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2512,9 +2593,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30990</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line"/>
+        <xdr:cNvPr id="22" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2539,7 +2626,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2558,9 +2645,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30990</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line"/>
+        <xdr:cNvPr id="23" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2586,7 +2679,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2597,23 +2690,29 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>609685</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>300526</xdr:rowOff>
+      <xdr:rowOff>300524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609685</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>330147</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line"/>
+        <xdr:cNvPr id="24" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8153485" y="12754781"/>
-          <a:ext cx="1" cy="1674272"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8153485" y="12632224"/>
+          <a:ext cx="25315" cy="3293575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2633,7 +2732,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2642,25 +2741,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>594718</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>320455</xdr:rowOff>
+      <xdr:colOff>624234</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>218855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>610916</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>320455</xdr:rowOff>
+      <xdr:colOff>640432</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>218855</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Line"/>
+        <xdr:cNvPr id="25" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4328518" y="14419360"/>
-          <a:ext cx="3826199" cy="1"/>
+          <a:off x="4360356" y="15919714"/>
+          <a:ext cx="3826198" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2679,7 +2784,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2688,25 +2793,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>607418</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>320455</xdr:rowOff>
+      <xdr:colOff>634670</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>607418</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6362</xdr:rowOff>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>229838</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Line"/>
+        <xdr:cNvPr id="26" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4341218" y="14419360"/>
-          <a:ext cx="1" cy="225023"/>
+        <a:xfrm flipH="1">
+          <a:off x="4368470" y="15779749"/>
+          <a:ext cx="329" cy="147289"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2725,7 +2836,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2744,9 +2855,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>456315</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Line"/>
+        <xdr:cNvPr id="27" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2772,7 +2889,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2791,9 +2908,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>203145</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Line"/>
+        <xdr:cNvPr id="28" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2818,7 +2941,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2837,9 +2960,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>204097</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Line"/>
+        <xdr:cNvPr id="29" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2864,7 +2993,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2883,9 +3012,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>319385</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Line"/>
+        <xdr:cNvPr id="30" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2911,7 +3046,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2930,9 +3065,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>2301</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Line"/>
+        <xdr:cNvPr id="31" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2958,7 +3099,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2977,9 +3118,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>2301</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Line"/>
+        <xdr:cNvPr id="32" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3004,7 +3151,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3023,9 +3170,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>285443</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Line"/>
+        <xdr:cNvPr id="33" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3050,7 +3203,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3069,9 +3222,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>429021</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Line"/>
+        <xdr:cNvPr id="34" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3097,7 +3256,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3116,9 +3275,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>416321</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Line"/>
+        <xdr:cNvPr id="35" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3143,7 +3308,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3162,9 +3327,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>156824</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Line"/>
+        <xdr:cNvPr id="36" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3189,7 +3360,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3208,9 +3379,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>169524</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Line"/>
+        <xdr:cNvPr id="37" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3235,7 +3412,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3254,9 +3431,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>311434</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Line"/>
+        <xdr:cNvPr id="38" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3281,7 +3464,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3300,9 +3483,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>2301</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Line"/>
+        <xdr:cNvPr id="39" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3328,7 +3517,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3347,9 +3536,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>2301</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Line"/>
+        <xdr:cNvPr id="40" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3374,7 +3569,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3393,9 +3588,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>285464</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Line"/>
+        <xdr:cNvPr id="41" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3420,7 +3621,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3439,9 +3640,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>463235</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Line"/>
+        <xdr:cNvPr id="42" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3467,7 +3674,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3486,9 +3693,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>87944</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Line"/>
+        <xdr:cNvPr id="43" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3513,7 +3726,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3532,9 +3745,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>100428</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Line"/>
+        <xdr:cNvPr id="44" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3559,7 +3778,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3578,9 +3797,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>211850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Line"/>
+        <xdr:cNvPr id="45" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3605,7 +3830,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3624,9 +3849,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>111916</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Line"/>
+        <xdr:cNvPr id="46" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3651,7 +3882,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3670,9 +3901,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>326986</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Line"/>
+        <xdr:cNvPr id="47" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3698,7 +3935,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3717,9 +3954,15 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>99216</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Line"/>
+        <xdr:cNvPr id="48" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3744,7 +3987,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3763,9 +4006,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>1066163</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Line"/>
+        <xdr:cNvPr id="49" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3790,7 +4039,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3809,9 +4058,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>403621</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Line"/>
+        <xdr:cNvPr id="50" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3836,7 +4091,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3855,9 +4110,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>221753</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Line"/>
+        <xdr:cNvPr id="51" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3883,7 +4144,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3902,9 +4163,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>234453</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Line"/>
+        <xdr:cNvPr id="52" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3929,7 +4196,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3938,25 +4205,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>870463</xdr:colOff>
+      <xdr:colOff>869950</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>247153</xdr:rowOff>
+      <xdr:rowOff>247151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>870463</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>307232</xdr:rowOff>
+      <xdr:rowOff>400049</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Line"/>
+        <xdr:cNvPr id="53" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2115063" y="14346058"/>
-          <a:ext cx="1" cy="1836175"/>
+          <a:off x="2114550" y="14191751"/>
+          <a:ext cx="513" cy="1905498"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3975,7 +4248,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3986,23 +4259,29 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>857763</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>307232</xdr:rowOff>
+      <xdr:rowOff>393467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>640496</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>307232</xdr:rowOff>
+      <xdr:rowOff>393467</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Line"/>
+        <xdr:cNvPr id="54" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2102363" y="16182232"/>
-          <a:ext cx="2271934" cy="1"/>
+          <a:off x="2104244" y="16041121"/>
+          <a:ext cx="2275696" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4021,7 +4300,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4030,25 +4309,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>632818</xdr:colOff>
+      <xdr:colOff>631825</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>294532</xdr:rowOff>
+      <xdr:rowOff>384173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>632818</xdr:colOff>
+      <xdr:colOff>631825</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>494855</xdr:rowOff>
+      <xdr:rowOff>498474</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Line"/>
+        <xdr:cNvPr id="55" name="Line">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4366618" y="16169532"/>
-          <a:ext cx="1" cy="200324"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4365625" y="16081373"/>
+          <a:ext cx="0" cy="114301"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4067,7 +4352,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4077,7 +4362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -4279,7 +4564,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4297,7 +4582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4326,7 +4611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4351,7 +4636,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4376,7 +4661,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4401,7 +4686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4426,7 +4711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4451,7 +4736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4476,7 +4761,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4501,7 +4786,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4526,7 +4811,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4539,9 +4824,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -4558,7 +4849,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4576,7 +4867,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4601,7 +4892,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4626,7 +4917,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4651,7 +4942,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4676,7 +4967,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4701,7 +4992,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4726,7 +5017,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4751,7 +5042,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4776,7 +5067,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4801,7 +5092,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4814,9 +5105,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -4830,7 +5127,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4848,7 +5145,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4877,7 +5174,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4902,7 +5199,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4927,7 +5224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4952,7 +5249,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4977,7 +5274,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5002,7 +5299,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5027,7 +5324,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5052,7 +5349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5077,7 +5374,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5090,1930 +5387,1939 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="50" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="1" customWidth="1"/>
-    <col min="6" max="31" width="16.3516" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="32" width="16.33203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="6"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="2"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="8">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="8">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="8">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s" s="8">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s" s="8">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="8">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="8">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s" s="8">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s" s="8">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s" s="8">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s" s="8">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s" s="8">
+      <c r="W2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s" s="8">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s" s="8">
+      <c r="Y2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" t="s" s="8">
+      <c r="Z2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s" s="8">
+      <c r="AA2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s" s="8">
+      <c r="AB2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="11"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="6"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="17"/>
+    <row r="3" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="107"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="11"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="s" s="18">
+    <row r="4" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="19">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="20">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="20">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s" s="20">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s" s="20">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s" s="20">
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s" s="20">
+      <c r="I4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s" s="20">
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s" s="20">
+      <c r="K4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s" s="20">
+      <c r="L4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s" s="20">
+      <c r="M4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s" s="20">
+      <c r="N4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s" s="20">
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s" s="20">
+      <c r="P4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s" s="20">
+      <c r="Q4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s" s="20">
+      <c r="R4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S4" t="s" s="20">
+      <c r="S4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T4" t="s" s="20">
+      <c r="T4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U4" t="s" s="20">
+      <c r="U4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V4" t="s" s="20">
+      <c r="V4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W4" t="s" s="20">
+      <c r="W4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X4" t="s" s="20">
+      <c r="X4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" t="s" s="20">
+      <c r="Y4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" t="s" s="20">
+      <c r="Z4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" t="s" s="20">
+      <c r="AA4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" t="s" s="20">
+      <c r="AB4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" t="s" s="20">
+      <c r="AC4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="22"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="16"/>
     </row>
-    <row r="5" ht="32" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" t="s" s="24">
+    <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="106"/>
+      <c r="B5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="25">
+      <c r="C5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="17"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="11"/>
     </row>
-    <row r="6" ht="44" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s" s="27">
+    <row r="6" spans="1:31" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="107"/>
+      <c r="B6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s" s="19">
+      <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s" s="20">
+      <c r="E6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="20">
+      <c r="F6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="29">
+      <c r="G6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="17"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="11"/>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="17"/>
+    <row r="7" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="107"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
     </row>
-    <row r="8" ht="56" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" t="s" s="27">
+    <row r="8" spans="1:31" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="107"/>
+      <c r="B8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s" s="28">
+      <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s" s="19">
+      <c r="D8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s" s="20">
+      <c r="E8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="20">
+      <c r="F8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s" s="20">
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s" s="20">
+      <c r="H8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I8" t="s" s="29">
+      <c r="I8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="17"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="17"/>
+    <row r="9" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="107"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" t="s" s="18">
+    <row r="10" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s" s="33">
+      <c r="B10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s" s="20">
+      <c r="D10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s" s="20">
+      <c r="E10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s" s="20">
+      <c r="F10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s" s="20">
+      <c r="G10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" t="s" s="19">
+      <c r="H10" s="27"/>
+      <c r="I10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J10" t="s" s="20">
+      <c r="J10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="17"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="11"/>
     </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="35"/>
-      <c r="C11" t="s" s="36">
+    <row r="11" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="106"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="16"/>
-      <c r="I11" t="s" s="39">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="11"/>
     </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="17"/>
+    <row r="12" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="107"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="11"/>
     </row>
-    <row r="13" ht="32" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" t="s" s="27">
+    <row r="13" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="107"/>
+      <c r="B13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="17"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="11"/>
     </row>
-    <row r="14" ht="26.7" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" t="s" s="33">
+    <row r="14" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="107"/>
+      <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s" s="19">
+      <c r="C14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s" s="20">
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s" s="20">
+      <c r="E14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s" s="42">
+      <c r="F14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="17"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="11"/>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="17"/>
+    <row r="15" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="11"/>
     </row>
-    <row r="16" ht="26.7" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" t="s" s="46">
+    <row r="16" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="107"/>
+      <c r="B16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="19">
+      <c r="C16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="20">
+      <c r="D16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="42">
+      <c r="E16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="17"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="11"/>
     </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="17"/>
+    <row r="17" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="107"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="11"/>
     </row>
-    <row r="18" ht="14.7" customHeight="1">
-      <c r="A18" t="s" s="18">
+    <row r="18" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s" s="19">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s" s="20">
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s" s="20">
+      <c r="D18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s" s="20">
+      <c r="E18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="s" s="19">
+      <c r="F18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s" s="20">
+      <c r="G18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s" s="20">
+      <c r="H18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I18" t="s" s="20">
+      <c r="I18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J18" t="s" s="20">
+      <c r="J18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K18" t="s" s="20">
+      <c r="K18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L18" t="s" s="20">
+      <c r="L18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M18" t="s" s="20">
+      <c r="M18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N18" t="s" s="20">
+      <c r="N18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O18" t="s" s="20">
+      <c r="O18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P18" t="s" s="20">
+      <c r="P18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" t="s" s="20">
+      <c r="Q18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R18" t="s" s="20">
+      <c r="R18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S18" t="s" s="20">
+      <c r="S18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T18" t="s" s="20">
+      <c r="T18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="17"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="11"/>
     </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" t="s" s="54">
+    <row r="19" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="106"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" t="s" s="54">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" t="s" s="39">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" t="s" s="39">
+      <c r="N19" s="19"/>
+      <c r="O19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="17"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="11"/>
     </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="17"/>
+    <row r="20" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="107"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="11"/>
     </row>
-    <row r="21" ht="38.7" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" t="s" s="33">
+    <row r="21" spans="1:31" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="107"/>
+      <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s" s="19">
+      <c r="C21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="s" s="20">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s" s="20">
+      <c r="E21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="s" s="29">
+      <c r="F21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="17"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="11"/>
     </row>
-    <row r="22" ht="32" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="61"/>
-      <c r="C22" t="s" s="36">
+    <row r="22" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="107"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="17"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="11"/>
     </row>
-    <row r="23" ht="26.7" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" t="s" s="65">
+    <row r="23" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="107"/>
+      <c r="B23" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="17"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="11"/>
     </row>
-    <row r="24" ht="26.7" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" t="s" s="33">
+    <row r="24" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="107"/>
+      <c r="B24" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s" s="19">
+      <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s" s="20">
+      <c r="D24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="s" s="68">
+      <c r="E24" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="17"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="11"/>
     </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="17"/>
+    <row r="25" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="107"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="11"/>
     </row>
-    <row r="26" ht="26.7" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" t="s" s="33">
+    <row r="26" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="107"/>
+      <c r="B26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s" s="19">
+      <c r="C26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D26" t="s" s="20">
+      <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E26" t="s" s="68">
+      <c r="E26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="17"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="11"/>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="17"/>
+    <row r="27" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="107"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="11"/>
     </row>
-    <row r="28" ht="26.7" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" t="s" s="33">
+    <row r="28" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="107"/>
+      <c r="B28" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s" s="19">
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s" s="20">
+      <c r="D28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E28" t="s" s="68">
+      <c r="E28" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="17"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="11"/>
     </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="17"/>
+    <row r="29" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="107"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="11"/>
     </row>
-    <row r="30" ht="26.7" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" t="s" s="33">
+    <row r="30" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="107"/>
+      <c r="B30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s" s="19">
+      <c r="C30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s" s="20">
+      <c r="D30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E30" t="s" s="73">
+      <c r="E30" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="17"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="11"/>
     </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="17"/>
+    <row r="31" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="107"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="11"/>
     </row>
-    <row r="32" ht="26.7" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" t="s" s="33">
+    <row r="32" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="107"/>
+      <c r="B32" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s" s="19">
+      <c r="C32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s" s="20">
+      <c r="D32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E32" t="s" s="29">
+      <c r="E32" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="17"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="11"/>
     </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="17"/>
+    <row r="33" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="107"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="11"/>
     </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" t="s" s="18">
+    <row r="34" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="17"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="11"/>
     </row>
-    <row r="35" ht="134.7" customHeight="1">
-      <c r="A35" s="77"/>
-      <c r="B35" t="s" s="78">
+    <row r="35" spans="1:31" ht="134.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="109"/>
+      <c r="B35" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s" s="19">
+      <c r="C35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s" s="79">
+      <c r="D35" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s" s="79">
+      <c r="E35" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s" s="79">
+      <c r="F35" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G35" t="s" s="79">
+      <c r="G35" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="73"/>
+    </row>
+    <row r="36" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="110"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="79"/>
+    </row>
+    <row r="37" spans="1:31" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="110"/>
+      <c r="B37" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="83"/>
+    </row>
+    <row r="38" spans="1:31" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="110"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="11"/>
+    </row>
+    <row r="39" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="110"/>
+      <c r="B39" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="11"/>
+    </row>
+    <row r="40" spans="1:31" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="110"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="49"/>
+      <c r="N40" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="11"/>
+    </row>
+    <row r="41" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="110"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="94"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="11"/>
+    </row>
+    <row r="42" spans="1:31" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="110"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="11"/>
+    </row>
+    <row r="43" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="110"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H35" t="s" s="79">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s" s="79">
-        <v>13</v>
-      </c>
-      <c r="J35" t="s" s="79">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s" s="79">
-        <v>72</v>
-      </c>
-      <c r="L35" t="s" s="79">
-        <v>73</v>
-      </c>
-      <c r="M35" t="s" s="79">
-        <v>74</v>
-      </c>
-      <c r="N35" t="s" s="79">
-        <v>25</v>
-      </c>
-      <c r="O35" t="s" s="79">
-        <v>26</v>
-      </c>
-      <c r="P35" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="Q35" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="R35" t="s" s="80">
-        <v>75</v>
-      </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="81"/>
+      <c r="F43" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="11"/>
     </row>
-    <row r="36" ht="34.6" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="88"/>
+    <row r="44" spans="1:31" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="110"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="11"/>
     </row>
-    <row r="37" ht="38.7" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" t="s" s="89">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s" s="19">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s" s="19">
-        <v>77</v>
-      </c>
-      <c r="E37" t="s" s="19">
-        <v>78</v>
-      </c>
-      <c r="F37" t="s" s="90">
-        <v>79</v>
-      </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="92"/>
-    </row>
-    <row r="38" ht="29.5" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="17"/>
-    </row>
-    <row r="39" ht="26.7" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" t="s" s="78">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s" s="19">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s" s="20">
-        <v>81</v>
-      </c>
-      <c r="E39" t="s" s="90">
-        <v>82</v>
-      </c>
-      <c r="F39" s="97"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="17"/>
-    </row>
-    <row r="40" ht="42.45" customHeight="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="56"/>
-      <c r="I40" t="s" s="78">
-        <v>58</v>
-      </c>
-      <c r="J40" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="K40" t="s" s="79">
-        <v>16</v>
-      </c>
-      <c r="L40" t="s" s="80">
-        <v>59</v>
-      </c>
-      <c r="M40" s="56"/>
-      <c r="N40" t="s" s="89">
-        <v>62</v>
-      </c>
-      <c r="O40" t="s" s="19">
-        <v>84</v>
-      </c>
-      <c r="P40" t="s" s="79">
-        <v>20</v>
-      </c>
-      <c r="Q40" t="s" s="80">
-        <v>63</v>
-      </c>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="17"/>
-    </row>
-    <row r="41" ht="26.7" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="97"/>
-      <c r="C41" t="s" s="102">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s" s="19">
-        <v>85</v>
-      </c>
-      <c r="E41" t="s" s="79">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s" s="73">
-        <v>50</v>
-      </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="17"/>
-    </row>
-    <row r="42" ht="44" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="56"/>
-      <c r="I42" t="s" s="78">
-        <v>60</v>
-      </c>
-      <c r="J42" t="s" s="19">
-        <v>86</v>
-      </c>
-      <c r="K42" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="L42" t="s" s="80">
-        <v>61</v>
-      </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="17"/>
-    </row>
-    <row r="43" ht="26.7" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="97"/>
-      <c r="C43" t="s" s="78">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s" s="19">
+    <row r="45" spans="1:31" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="110"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E43" t="s" s="79">
-        <v>71</v>
-      </c>
-      <c r="F43" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="17"/>
-    </row>
-    <row r="44" ht="44" customHeight="1">
-      <c r="A44" s="82"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
-      <c r="AE44" s="17"/>
-    </row>
-    <row r="45" ht="26.7" customHeight="1">
-      <c r="A45" s="82"/>
-      <c r="B45" s="106"/>
-      <c r="C45" t="s" s="107">
-        <v>64</v>
-      </c>
-      <c r="D45" t="s" s="19">
+      <c r="E45" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="100"/>
+      <c r="H45" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E45" t="s" s="79">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s" s="108">
-        <v>65</v>
-      </c>
-      <c r="G45" s="109"/>
-      <c r="H45" t="s" s="107">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s" s="19">
-        <v>89</v>
-      </c>
-      <c r="J45" t="s" s="79">
+      <c r="J45" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K45" t="s" s="79">
+      <c r="K45" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="L45" t="s" s="110">
+      <c r="L45" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="81"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A35:A45"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A19:A33"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A35:A45"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
